--- a/python/result_data/AMS.MC_resultados.xlsx
+++ b/python/result_data/AMS.MC_resultados.xlsx
@@ -366,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +406,7 @@
         <v>40554</v>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -415,41 +415,41 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3717106032676495</v>
+        <v>0.9838983260742764</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40559</v>
+        <v>40563</v>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6182134243819856</v>
+        <v>0.9205286033779672</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40567</v>
+        <v>40569</v>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4617036966903436</v>
+        <v>0.8571588806816578</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>40570</v>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -466,41 +466,41 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3717106032676495</v>
+        <v>0.9838983260742764</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40577</v>
+        <v>40574</v>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.5516967901130377</v>
+        <v>0.6670497125927298</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40580</v>
+        <v>40584</v>
       </c>
       <c r="B7" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3482341441139033</v>
+        <v>0.9205286033779672</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         <v>40588</v>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -517,202 +517,202 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.5516967901130377</v>
+        <v>0.7937891579853484</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40595</v>
+        <v>40596</v>
       </c>
       <c r="B9" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5516967901130377</v>
+        <v>0.7304194352890392</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40596</v>
+        <v>40605</v>
       </c>
       <c r="B10" t="n">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6416898835357318</v>
+        <v>0.9205286033779672</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40603</v>
+        <v>40608</v>
       </c>
       <c r="B11" t="n">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
-        <v>-0.6416898835357318</v>
+        <v>1.997813889215226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40604</v>
+        <v>40612</v>
       </c>
       <c r="B12" t="n">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5516967901130377</v>
+        <v>0.7937891579853484</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40605</v>
+        <v>40637</v>
       </c>
       <c r="B13" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4617036966903436</v>
+        <v>0.6670497125927298</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40608</v>
+        <v>40639</v>
       </c>
       <c r="B14" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6182134243819856</v>
+        <v>0.8571588806816578</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40619</v>
+        <v>40643</v>
       </c>
       <c r="B15" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5516967901130377</v>
+        <v>2.124553334607844</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40623</v>
+        <v>40658</v>
       </c>
       <c r="B16" t="n">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.5516967901130377</v>
+        <v>1.237377216859514</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40632</v>
+        <v>40661</v>
       </c>
       <c r="B17" t="n">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.6416898835357318</v>
+        <v>0.7937891579853484</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40633</v>
+        <v>40665</v>
       </c>
       <c r="B18" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.5516967901130377</v>
+        <v>0.8571588806816578</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40637</v>
+        <v>40681</v>
       </c>
       <c r="B19" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.6416898835357318</v>
+        <v>0.6670497125927298</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40639</v>
+        <v>40695</v>
       </c>
       <c r="B20" t="n">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -721,32 +721,32 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.5516967901130377</v>
+        <v>0.7937891579853484</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40643</v>
+        <v>40696</v>
       </c>
       <c r="B21" t="n">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5282203309592914</v>
+        <v>0.9838983260742764</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40644</v>
+        <v>40700</v>
       </c>
       <c r="B22" t="n">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -755,134 +755,134 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.6416898835357318</v>
+        <v>0.7304194352890392</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40647</v>
+        <v>40715</v>
       </c>
       <c r="B23" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.5516967901130377</v>
+        <v>0.6670497125927298</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40650</v>
+        <v>40716</v>
       </c>
       <c r="B24" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6182134243819856</v>
+        <v>0.7304194352890392</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40652</v>
+        <v>40717</v>
       </c>
       <c r="B25" t="n">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.947957881021667</v>
+        <v>0.9838983260742764</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40653</v>
+        <v>40721</v>
       </c>
       <c r="B26" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3717106032676495</v>
+        <v>0.6670497125927298</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40658</v>
+        <v>40722</v>
       </c>
       <c r="B27" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.1917244164222613</v>
+        <v>0.7304194352890392</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40660</v>
+        <v>40724</v>
       </c>
       <c r="B28" t="n">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.6416898835357318</v>
+        <v>0.7937891579853484</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40665</v>
+        <v>40730</v>
       </c>
       <c r="B29" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.6416898835357318</v>
+        <v>-0.6003447413334567</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>40667</v>
+        <v>40737</v>
       </c>
       <c r="B30" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -891,168 +891,168 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.5516967901130377</v>
+        <v>-0.6003447413334567</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>40668</v>
+        <v>40743</v>
       </c>
       <c r="B31" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.4617036966903436</v>
+        <v>-0.6637144640297661</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>40681</v>
+        <v>40766</v>
       </c>
       <c r="B32" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.6416898835357318</v>
+        <v>-0.6637144640297661</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>40689</v>
+        <v>40772</v>
       </c>
       <c r="B33" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.6416898835357318</v>
+        <v>-0.6637144640297661</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>40696</v>
+        <v>40777</v>
       </c>
       <c r="B34" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>4.127944067867055</v>
+        <v>-0.7904539094223847</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>40700</v>
+        <v>40780</v>
       </c>
       <c r="B35" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.6416898835357318</v>
+        <v>-0.7904539094223847</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>40701</v>
+        <v>40787</v>
       </c>
       <c r="B36" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.7316829769584259</v>
+        <v>-0.7270841867260754</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>40707</v>
+        <v>40794</v>
       </c>
       <c r="B37" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.5516967901130377</v>
+        <v>-0.9171933548150034</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>40709</v>
+        <v>40798</v>
       </c>
       <c r="B38" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.6416898835357318</v>
+        <v>-0.9805630775113127</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>40713</v>
+        <v>40805</v>
       </c>
       <c r="B39" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5282203309592914</v>
+        <v>-0.9171933548150034</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>40714</v>
+        <v>40812</v>
       </c>
       <c r="B40" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -1061,100 +1061,100 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.7316829769584259</v>
+        <v>-0.9805630775113127</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>40715</v>
+        <v>40826</v>
       </c>
       <c r="B41" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>1</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
       <c r="E41" t="n">
-        <v>-0.7316829769584259</v>
+        <v>-1.043932800207622</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>40716</v>
+        <v>40828</v>
       </c>
       <c r="B42" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.6416898835357318</v>
+        <v>-1.107302522903931</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>40721</v>
+        <v>40834</v>
       </c>
       <c r="B43" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.6416898835357318</v>
+        <v>-1.107302522903931</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>40722</v>
+        <v>40835</v>
       </c>
       <c r="B44" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
         <v>1</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
-        <v>-0.6416898835357318</v>
+        <v>-1.107302522903931</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>40730</v>
+        <v>40842</v>
       </c>
       <c r="B45" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4382272375365974</v>
+        <v>-1.043932800207622</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>40731</v>
+        <v>40843</v>
       </c>
       <c r="B46" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C46" t="n">
         <v>3</v>
@@ -1163,415 +1163,211 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5282203309592914</v>
+        <v>-0.9805630775113127</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>40738</v>
+        <v>40848</v>
       </c>
       <c r="B47" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6182134243819856</v>
+        <v>-0.8538236321186941</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>40743</v>
+        <v>40849</v>
       </c>
       <c r="B48" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
         <v>1</v>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
       <c r="E48" t="n">
-        <v>0.3482341441139033</v>
+        <v>2.124553334607844</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>40749</v>
+        <v>40855</v>
       </c>
       <c r="B49" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2582410506912092</v>
+        <v>-1.107302522903931</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>40765</v>
+        <v>40856</v>
       </c>
       <c r="B50" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3482341441139033</v>
+        <v>-1.107302522903931</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>40769</v>
+        <v>40861</v>
       </c>
       <c r="B51" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1.698130545454315</v>
+        <v>-1.107302522903931</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>40772</v>
+        <v>40864</v>
       </c>
       <c r="B52" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4382272375365974</v>
+        <v>-1.107302522903931</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>40773</v>
+        <v>40868</v>
       </c>
       <c r="B53" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3482341441139033</v>
+        <v>-1.107302522903931</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>40785</v>
+        <v>40877</v>
       </c>
       <c r="B54" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
         <v>1</v>
       </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
       <c r="E54" t="n">
-        <v>0.1682479572685151</v>
+        <v>-1.107302522903931</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>40787</v>
+        <v>40883</v>
       </c>
       <c r="B55" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2582410506912092</v>
+        <v>-1.170672245600241</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>40791</v>
+        <v>40884</v>
       </c>
       <c r="B56" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.07825486384582098</v>
+        <v>-1.107302522903931</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>40793</v>
+        <v>40890</v>
       </c>
       <c r="B57" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.07825486384582098</v>
+        <v>-1.107302522903931</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>40801</v>
+        <v>40895</v>
       </c>
       <c r="B58" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.01173822957687311</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>40822</v>
-      </c>
-      <c r="B59" t="n">
-        <v>54</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-0.01173822957687311</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>40828</v>
-      </c>
-      <c r="B60" t="n">
-        <v>51</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-0.2817175098449554</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>40846</v>
-      </c>
-      <c r="B61" t="n">
-        <v>63</v>
-      </c>
-      <c r="C61" t="n">
-        <v>6</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.7981996112273737</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>40848</v>
-      </c>
-      <c r="B62" t="n">
-        <v>54</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-0.01173822957687311</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>40854</v>
-      </c>
-      <c r="B63" t="n">
-        <v>51</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-0.2817175098449554</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>40855</v>
-      </c>
-      <c r="B64" t="n">
-        <v>51</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-0.2817175098449554</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>40863</v>
-      </c>
-      <c r="B65" t="n">
-        <v>50</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-0.3717106032676495</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>40870</v>
-      </c>
-      <c r="B66" t="n">
-        <v>52</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-0.1917244164222613</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>40871</v>
-      </c>
-      <c r="B67" t="n">
-        <v>55</v>
-      </c>
-      <c r="C67" t="n">
-        <v>3</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.07825486384582098</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>40883</v>
-      </c>
-      <c r="B68" t="n">
-        <v>50</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-0.3717106032676495</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>40885</v>
-      </c>
-      <c r="B69" t="n">
-        <v>52</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-0.1917244164222613</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>40890</v>
-      </c>
-      <c r="B70" t="n">
-        <v>100</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" t="n">
-        <v>4.127944067867055</v>
+        <v>-0.4102355732445288</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1647,42 +1443,42 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40560</v>
+        <v>40564</v>
       </c>
       <c r="B3" t="n">
-        <v>12.259961</v>
+        <v>11.802561</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01009421836213775</v>
+        <v>-0.02759081958201559</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3292636479306564</v>
+        <v>-0.7818416154103609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40568</v>
+        <v>40570</v>
       </c>
       <c r="B4" t="n">
-        <v>12.402901</v>
+        <v>12.406984</v>
       </c>
       <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05121117357495542</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.01165909092206729</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
-        <v>0.3707787606336085</v>
+        <v>1.746491367159454</v>
       </c>
     </row>
     <row r="5">
@@ -1696,53 +1492,53 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.006914833876364823</v>
+        <v>-0.007241647123910178</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1219761135254632</v>
+        <v>-0.1289458975147043</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40578</v>
+        <v>40575</v>
       </c>
       <c r="B6" t="n">
-        <v>12.745951</v>
+        <v>12.570341</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03481442156566095</v>
+        <v>0.02055704990534735</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.98507553211396</v>
+        <v>0.7629650777766589</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40581</v>
+        <v>40585</v>
       </c>
       <c r="B7" t="n">
-        <v>12.741868</v>
+        <v>12.37431</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0003203370231064095</v>
+        <v>-0.01559472412084939</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05297185801709643</v>
+        <v>-0.3969513023429497</v>
       </c>
     </row>
     <row r="8">
@@ -1756,1253 +1552,1013 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.03525660444763667</v>
+        <v>-0.006600529645693354</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.873865966792836</v>
+        <v>-0.108375878903009</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40596</v>
+        <v>40597</v>
       </c>
       <c r="B9" t="n">
-        <v>11.761724</v>
+        <v>11.639204</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.04318920120693437</v>
+        <v>-0.05315614644966626</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.084312911114068</v>
+        <v>-1.602095730060778</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40597</v>
+        <v>40606</v>
       </c>
       <c r="B10" t="n">
-        <v>11.639204</v>
+        <v>11.463595</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01041684025233036</v>
+        <v>-0.01508771562041522</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.214882202562651</v>
+        <v>-0.38068412098451</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40604</v>
+        <v>40609</v>
       </c>
       <c r="B11" t="n">
-        <v>11.479934</v>
+        <v>11.696379</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01368392546431862</v>
+        <v>0.02030636986041467</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3015559766826009</v>
+        <v>0.7549221006858022</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40605</v>
+        <v>40613</v>
       </c>
       <c r="B12" t="n">
-        <v>11.606534</v>
+        <v>11.075623</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01102793796549695</v>
+        <v>-0.05307249363243105</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.354034658400773</v>
+        <v>-1.599411760170836</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40606</v>
+        <v>40638</v>
       </c>
       <c r="B13" t="n">
-        <v>11.463595</v>
+        <v>10.78158</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0123153906239365</v>
+        <v>-0.02654866457625005</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.265249583694958</v>
+        <v>-0.7484044551499777</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40609</v>
+        <v>40640</v>
       </c>
       <c r="B14" t="n">
-        <v>11.696379</v>
+        <v>11.308407</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02030636986041467</v>
+        <v>0.04886361739188505</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6001857864143654</v>
+        <v>1.671170889995008</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40620</v>
+        <v>40644</v>
       </c>
       <c r="B15" t="n">
-        <v>10.761156</v>
+        <v>11.255316</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.07995833582342027</v>
+        <v>-0.004694825716831774</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.059775582439942</v>
+        <v>-0.04723206888851093</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40624</v>
+        <v>40659</v>
       </c>
       <c r="B16" t="n">
-        <v>11.026615</v>
+        <v>11.859736</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02466826054747284</v>
+        <v>0.05370084678208942</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7159040807394509</v>
+        <v>1.826371616798298</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>40662</v>
       </c>
       <c r="B17" t="n">
-        <v>11.026615</v>
+        <v>11.549358</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.02617073432325978</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06147020347839683</v>
+        <v>-0.7362787019111877</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40634</v>
+        <v>40666</v>
       </c>
       <c r="B18" t="n">
-        <v>11.087874</v>
+        <v>11.496266</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.005555558074712863</v>
+        <v>-0.004596965476349357</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2088557641338182</v>
+        <v>-0.04409225904637852</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40638</v>
+        <v>40682</v>
       </c>
       <c r="B19" t="n">
-        <v>10.78158</v>
+        <v>11.54119</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0276242316606411</v>
+        <v>0.003907703596976564</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6713837809863877</v>
+        <v>0.228776921826989</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40640</v>
+        <v>40696</v>
       </c>
       <c r="B20" t="n">
-        <v>11.308407</v>
+        <v>11.680045</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04886361739188505</v>
+        <v>0.01203125500923208</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.357792111755307</v>
+        <v>0.489418082645017</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40644</v>
+        <v>40697</v>
       </c>
       <c r="B21" t="n">
-        <v>11.255316</v>
+        <v>11.598366</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.004694825716831774</v>
+        <v>-0.006993038126137274</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.06308065372608027</v>
+        <v>-0.1209693692106451</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40645</v>
+        <v>40701</v>
       </c>
       <c r="B22" t="n">
-        <v>11.177719</v>
+        <v>11.528939</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.006894253346596435</v>
+        <v>-0.005985929397296252</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.121430124647711</v>
+        <v>-0.08865665586225868</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40648</v>
+        <v>40716</v>
       </c>
       <c r="B23" t="n">
-        <v>11.663709</v>
+        <v>11.349244</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>0.04347845924557614</v>
+        <v>-0.01558642993947656</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.214927157067047</v>
+        <v>-0.3966851865825709</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40651</v>
+        <v>40717</v>
       </c>
       <c r="B24" t="n">
-        <v>11.33291</v>
+        <v>11.214473</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.02836139001753224</v>
+        <v>-0.0118748878779944</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6909401417085904</v>
+        <v>-0.2776017239149722</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40653</v>
+        <v>40718</v>
       </c>
       <c r="B25" t="n">
-        <v>11.798477</v>
+        <v>11.189974</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0410809756717383</v>
+        <v>-0.002184587719815334</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.151323382983466</v>
+        <v>0.03330799447402611</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40654</v>
+        <v>40722</v>
       </c>
       <c r="B26" t="n">
-        <v>11.790311</v>
+        <v>11.287986</v>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0006921232291251522</v>
+        <v>0.008758912219098969</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04310859717433106</v>
+        <v>0.3844261671475576</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40659</v>
+        <v>40723</v>
       </c>
       <c r="B27" t="n">
-        <v>11.859736</v>
+        <v>11.557525</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0.005888309477162901</v>
+        <v>0.02387839602210695</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2176834554925322</v>
+        <v>0.8695292469951456</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40661</v>
+        <v>40725</v>
       </c>
       <c r="B28" t="n">
-        <v>11.537106</v>
+        <v>11.635119</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.02720380959576163</v>
+        <v>0.006713721147044938</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6602302405299912</v>
+        <v>0.3188069634196619</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40666</v>
+        <v>40731</v>
       </c>
       <c r="B29" t="n">
-        <v>11.496266</v>
+        <v>11.684129</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.003539882532066496</v>
+        <v>0.004212247420933179</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.03244071683358612</v>
+        <v>0.2385480984673267</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>40668</v>
+        <v>40738</v>
       </c>
       <c r="B30" t="n">
-        <v>11.31249</v>
+        <v>11.189974</v>
       </c>
       <c r="C30" t="n">
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01598571223038858</v>
+        <v>-0.04229284014238466</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.3626209729375422</v>
+        <v>-1.253550540578739</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>40669</v>
+        <v>40744</v>
       </c>
       <c r="B31" t="n">
-        <v>11.639204</v>
+        <v>11.202225</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02888082111011792</v>
+        <v>0.001094819344531262</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.827660738121248</v>
+        <v>0.1385265646127748</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>40682</v>
+        <v>40767</v>
       </c>
       <c r="B32" t="n">
-        <v>11.54119</v>
+        <v>10.771528</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.008421022606013184</v>
+        <v>-0.03844745128757909</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1619343800734326</v>
+        <v>-1.13017265274988</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>40690</v>
+        <v>40773</v>
       </c>
       <c r="B33" t="n">
-        <v>11.402338</v>
+        <v>10.212293</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01203099507069894</v>
+        <v>-0.05191788945820863</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2577047434650244</v>
+        <v>-1.562366709677198</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>40697</v>
+        <v>40778</v>
       </c>
       <c r="B34" t="n">
-        <v>11.598366</v>
+        <v>10.683887</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01719191274631582</v>
+        <v>0.04617905107109643</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5175611424586003</v>
+        <v>1.585037566447905</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>40701</v>
+        <v>40781</v>
       </c>
       <c r="B35" t="n">
-        <v>11.528939</v>
+        <v>11.092881</v>
       </c>
       <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.03828138579151941</v>
+      </c>
+      <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="D35" t="n">
-        <v>-0.005985929397296252</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
-        <v>-0.09733284536019798</v>
+        <v>1.331643879160382</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>40702</v>
+        <v>40788</v>
       </c>
       <c r="B36" t="n">
-        <v>11.369664</v>
+        <v>11.481003</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.01381523486246217</v>
+        <v>0.03498838579445684</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3050395347706355</v>
+        <v>1.225989184772248</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>40708</v>
+        <v>40795</v>
       </c>
       <c r="B37" t="n">
-        <v>11.737219</v>
+        <v>11.218081</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>0.03232769235748734</v>
+        <v>-0.02290061242907082</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9191041258905047</v>
+        <v>-0.6313580430436877</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>40710</v>
+        <v>40799</v>
       </c>
       <c r="B38" t="n">
-        <v>11.484015</v>
+        <v>10.925945</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.02157274223135819</v>
+        <v>-0.02604153063255643</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5108414645636916</v>
+        <v>-0.732133248990672</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>40714</v>
+        <v>40806</v>
       </c>
       <c r="B39" t="n">
-        <v>11.390084</v>
+        <v>10.633805</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.00817928224579989</v>
+        <v>-0.02673819060959948</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1555211560473439</v>
+        <v>-0.7544853282596016</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>40715</v>
+        <v>40813</v>
       </c>
       <c r="B40" t="n">
-        <v>11.406421</v>
+        <v>10.262374</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001434317780272698</v>
+        <v>-0.03492926567677335</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09952177766061021</v>
+        <v>-1.017292960723768</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>40716</v>
+        <v>40827</v>
       </c>
       <c r="B41" t="n">
-        <v>11.349244</v>
+        <v>10.516951</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.005012702932848057</v>
+        <v>0.02480683319473664</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.07151374200849656</v>
+        <v>0.899317812382414</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>40717</v>
+        <v>40829</v>
       </c>
       <c r="B42" t="n">
-        <v>11.214473</v>
+        <v>10.550339</v>
       </c>
       <c r="C42" t="n">
         <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0118748878779944</v>
+        <v>0.003174684373826508</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.2535633150415098</v>
+        <v>0.2052582695124944</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>40722</v>
+        <v>40835</v>
       </c>
       <c r="B43" t="n">
-        <v>11.287986</v>
+        <v>10.658847</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>0.006555189887210933</v>
+        <v>0.01028478800539023</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2353753852326648</v>
+        <v>0.4333833308337603</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>40723</v>
+        <v>40836</v>
       </c>
       <c r="B44" t="n">
-        <v>11.557525</v>
+        <v>10.52947</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02387839602210695</v>
+        <v>-0.01213799203609922</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6949494575769711</v>
+        <v>-0.2860433241098124</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>40731</v>
+        <v>40843</v>
       </c>
       <c r="B45" t="n">
-        <v>11.684129</v>
+        <v>11.693846</v>
       </c>
       <c r="C45" t="n">
         <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01095424842256465</v>
+        <v>0.1105825839287258</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3520797198593232</v>
+        <v>3.651401243234657</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>40732</v>
+        <v>40844</v>
       </c>
       <c r="B46" t="n">
-        <v>11.663709</v>
+        <v>11.385018</v>
       </c>
       <c r="C46" t="n">
         <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.001747669851984712</v>
+        <v>-0.02640944647295684</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01510559032679062</v>
+        <v>-0.7439376934828474</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>40739</v>
+        <v>40849</v>
       </c>
       <c r="B47" t="n">
-        <v>11.202225</v>
+        <v>10.959332</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.03956580192458514</v>
+        <v>-0.03739001554499088</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.98818634245515</v>
+        <v>-1.09624521566579</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>40744</v>
+        <v>40850</v>
       </c>
       <c r="B48" t="n">
-        <v>11.202225</v>
+        <v>10.996888</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.003426851198595093</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06147020347839683</v>
+        <v>0.2133489493878411</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>40750</v>
+        <v>40856</v>
       </c>
       <c r="B49" t="n">
-        <v>11.430923</v>
+        <v>10.788221</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02041540854607016</v>
+        <v>-0.01897509549974508</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6030785161099853</v>
+        <v>-0.5054092753991922</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>40766</v>
+        <v>40857</v>
       </c>
       <c r="B50" t="n">
-        <v>10.483564</v>
+        <v>10.471044</v>
       </c>
       <c r="C50" t="n">
         <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.08287685955018687</v>
+        <v>-0.02940030613017675</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.137202233366973</v>
+        <v>-0.8398983261349111</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>40770</v>
+        <v>40862</v>
       </c>
       <c r="B51" t="n">
-        <v>10.57538</v>
+        <v>10.675538</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0.008758090283037312</v>
+        <v>0.01952947576192021</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2938169865156648</v>
+        <v>0.7299957391244306</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>40773</v>
+        <v>40865</v>
       </c>
       <c r="B52" t="n">
-        <v>10.212293</v>
+        <v>10.41679</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0343332343613183</v>
+        <v>-0.02423746700166296</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.8493695226851011</v>
+        <v>-0.6742505305731732</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>40774</v>
+        <v>40869</v>
       </c>
       <c r="B53" t="n">
-        <v>10.062051</v>
+        <v>10.078744</v>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01471187714649402</v>
+        <v>-0.03245203176794387</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.3288269066173825</v>
+        <v>-0.9378118213982979</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>40786</v>
+        <v>40878</v>
       </c>
       <c r="B54" t="n">
-        <v>11.610379</v>
+        <v>10.537817</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1538779717972012</v>
+        <v>0.04554863185333402</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>4.143758758624459</v>
+        <v>1.564810797590174</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>40788</v>
+        <v>40884</v>
       </c>
       <c r="B55" t="n">
-        <v>11.481003</v>
+        <v>10.516951</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01114313322588356</v>
+        <v>-0.001980106505930057</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.2341503113048612</v>
+        <v>0.03986869905356915</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>40792</v>
+        <v>40885</v>
       </c>
       <c r="B56" t="n">
-        <v>11.101227</v>
+        <v>10.291589</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.03307864304190145</v>
+        <v>-0.0214284539311822</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8160859816764449</v>
+        <v>-0.5841243788092321</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>40794</v>
+        <v>40891</v>
       </c>
       <c r="B57" t="n">
-        <v>11.435099</v>
+        <v>9.882595</v>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>0.03007523402593248</v>
+        <v>-0.03974060759713582</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8593477828580642</v>
+        <v>-1.171663097573499</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>40802</v>
+        <v>40896</v>
       </c>
       <c r="B58" t="n">
-        <v>11.168002</v>
+        <v>9.861727999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.02335764648823768</v>
+        <v>-0.002111489947731471</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.5581938837227748</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>40823</v>
-      </c>
-      <c r="B59" t="n">
-        <v>9.999451000000001</v>
-      </c>
-      <c r="C59" t="n">
-        <v>4</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-0.1046338458750276</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" t="n">
-        <v>-2.714401784615426</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>40829</v>
-      </c>
-      <c r="B60" t="n">
-        <v>10.550339</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.05509182454116712</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1.523022641295309</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>40847</v>
-      </c>
-      <c r="B61" t="n">
-        <v>11.401711</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.08069617478642166</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2.202290406183116</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>40849</v>
-      </c>
-      <c r="B62" t="n">
-        <v>10.959332</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2</v>
-      </c>
-      <c r="D62" t="n">
-        <v>-0.03879935213232477</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>-0.9678528978529416</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>40855</v>
-      </c>
-      <c r="B63" t="n">
-        <v>11.017759</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.00533125559112535</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.2029051563181204</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>40856</v>
-      </c>
-      <c r="B64" t="n">
-        <v>10.788221</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-0.02083345624096511</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>-0.4912286590249044</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>40864</v>
-      </c>
-      <c r="B65" t="n">
-        <v>10.533644</v>
-      </c>
-      <c r="C65" t="n">
-        <v>3</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-0.02359768121175854</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>-0.5645618582497477</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>40871</v>
-      </c>
-      <c r="B66" t="n">
-        <v>9.895116</v>
-      </c>
-      <c r="C66" t="n">
-        <v>3</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-0.06061795898931088</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>-1.546687204162182</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>40872</v>
-      </c>
-      <c r="B67" t="n">
-        <v>9.769914</v>
-      </c>
-      <c r="C67" t="n">
-        <v>4</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-0.0126529087683257</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>-0.2742037338043062</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>40884</v>
-      </c>
-      <c r="B68" t="n">
-        <v>10.516951</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.0764630067368044</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2.089987044765424</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>40886</v>
-      </c>
-      <c r="B69" t="n">
-        <v>10.350016</v>
-      </c>
-      <c r="C69" t="n">
-        <v>4</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.01587294644617065</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>-0.3596293655947341</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>40891</v>
-      </c>
-      <c r="B70" t="n">
-        <v>9.882595</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.04516137946066945</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" t="n">
-        <v>-1.136633594964394</v>
+        <v>0.03565330962035567</v>
       </c>
     </row>
   </sheetData>
@@ -3047,10 +2603,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -3063,10 +2619,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -3096,13 +2652,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.25</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07412493166611012</v>
+        <v>0.1561737618886061</v>
       </c>
       <c r="E6" t="n">
         <v>0.2352941176470588</v>
@@ -3131,10 +2687,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.909090909090909</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D9" t="n">
-        <v>0.158300568767416</v>
+        <v>0.7519878717401469</v>
       </c>
     </row>
     <row r="11">
@@ -3164,16 +2720,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -3203,10 +2759,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7684503901895207</v>
+        <v>0.5603538761433497</v>
       </c>
     </row>
     <row r="16">
@@ -3219,10 +2775,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.25</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8115942028985508</v>
+        <v>0.543859649122807</v>
       </c>
     </row>
     <row r="17">
@@ -3238,7 +2794,7 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7687289073013324</v>
+        <v>0.5515737874097008</v>
       </c>
     </row>
     <row r="19">
@@ -3253,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04905659740851354</v>
+        <v>0.08161612093666917</v>
       </c>
     </row>
     <row r="22">
@@ -3279,10 +2835,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.002317060665712429</v>
+        <v>-0.003222716941998258</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03769404580752267</v>
+        <v>0.03116756918500352</v>
       </c>
     </row>
     <row r="24">
@@ -3295,10 +2851,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>54.1304347826087</v>
+        <v>66.47368421052632</v>
       </c>
       <c r="D24" t="n">
-        <v>11.11196384041427</v>
+        <v>15.78040675343274</v>
       </c>
     </row>
   </sheetData>
@@ -3417,7 +2973,7 @@
         <v>40554</v>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -3457,7 +3013,7 @@
         <v>40559</v>
       </c>
       <c r="B17" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3489,7 +3045,7 @@
         <v>40563</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -3521,7 +3077,7 @@
         <v>40567</v>
       </c>
       <c r="B25" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3537,7 +3093,7 @@
         <v>40569</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
@@ -3545,7 +3101,7 @@
         <v>40570</v>
       </c>
       <c r="B28" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -3553,7 +3109,7 @@
         <v>40571</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -3561,7 +3117,7 @@
         <v>40572</v>
       </c>
       <c r="B30" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3577,7 +3133,7 @@
         <v>40574</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -3601,7 +3157,7 @@
         <v>40577</v>
       </c>
       <c r="B35" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3625,7 +3181,7 @@
         <v>40580</v>
       </c>
       <c r="B38" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3657,7 +3213,7 @@
         <v>40584</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
@@ -3689,7 +3245,7 @@
         <v>40588</v>
       </c>
       <c r="B46" t="n">
-        <v>48</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47">
@@ -3745,7 +3301,7 @@
         <v>40595</v>
       </c>
       <c r="B53" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3753,7 +3309,7 @@
         <v>40596</v>
       </c>
       <c r="B54" t="n">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
@@ -3809,7 +3365,7 @@
         <v>40603</v>
       </c>
       <c r="B61" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3817,7 +3373,7 @@
         <v>40604</v>
       </c>
       <c r="B62" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3825,7 +3381,7 @@
         <v>40605</v>
       </c>
       <c r="B63" t="n">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64">
@@ -3833,7 +3389,7 @@
         <v>40606</v>
       </c>
       <c r="B64" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3849,7 +3405,7 @@
         <v>40608</v>
       </c>
       <c r="B66" t="n">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67">
@@ -3881,7 +3437,7 @@
         <v>40612</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
@@ -3937,7 +3493,7 @@
         <v>40619</v>
       </c>
       <c r="B77" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3969,7 +3525,7 @@
         <v>40623</v>
       </c>
       <c r="B81" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4041,7 +3597,7 @@
         <v>40632</v>
       </c>
       <c r="B90" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4049,7 +3605,7 @@
         <v>40633</v>
       </c>
       <c r="B91" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4081,7 +3637,7 @@
         <v>40637</v>
       </c>
       <c r="B95" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96">
@@ -4097,7 +3653,7 @@
         <v>40639</v>
       </c>
       <c r="B97" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98">
@@ -4113,7 +3669,7 @@
         <v>40641</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100">
@@ -4129,7 +3685,7 @@
         <v>40643</v>
       </c>
       <c r="B101" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
@@ -4137,7 +3693,7 @@
         <v>40644</v>
       </c>
       <c r="B102" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4161,7 +3717,7 @@
         <v>40647</v>
       </c>
       <c r="B105" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4169,7 +3725,7 @@
         <v>40648</v>
       </c>
       <c r="B106" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4185,7 +3741,7 @@
         <v>40650</v>
       </c>
       <c r="B108" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4201,7 +3757,7 @@
         <v>40652</v>
       </c>
       <c r="B110" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4209,7 +3765,7 @@
         <v>40653</v>
       </c>
       <c r="B111" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4217,7 +3773,7 @@
         <v>40654</v>
       </c>
       <c r="B112" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4249,7 +3805,7 @@
         <v>40658</v>
       </c>
       <c r="B116" t="n">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117">
@@ -4265,7 +3821,7 @@
         <v>40660</v>
       </c>
       <c r="B118" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -4273,7 +3829,7 @@
         <v>40661</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120">
@@ -4305,7 +3861,7 @@
         <v>40665</v>
       </c>
       <c r="B123" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124">
@@ -4321,7 +3877,7 @@
         <v>40667</v>
       </c>
       <c r="B125" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -4329,7 +3885,7 @@
         <v>40668</v>
       </c>
       <c r="B126" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -4337,7 +3893,7 @@
         <v>40669</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128">
@@ -4433,7 +3989,7 @@
         <v>40681</v>
       </c>
       <c r="B139" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140">
@@ -4497,7 +4053,7 @@
         <v>40689</v>
       </c>
       <c r="B147" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -4505,7 +4061,7 @@
         <v>40690</v>
       </c>
       <c r="B148" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="149">
@@ -4545,7 +4101,7 @@
         <v>40695</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="154">
@@ -4553,7 +4109,7 @@
         <v>40696</v>
       </c>
       <c r="B154" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="155">
@@ -4585,7 +4141,7 @@
         <v>40700</v>
       </c>
       <c r="B158" t="n">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="159">
@@ -4593,7 +4149,7 @@
         <v>40701</v>
       </c>
       <c r="B159" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -4617,7 +4173,7 @@
         <v>40704</v>
       </c>
       <c r="B162" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -4641,7 +4197,7 @@
         <v>40707</v>
       </c>
       <c r="B165" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -4657,7 +4213,7 @@
         <v>40709</v>
       </c>
       <c r="B167" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -4689,7 +4245,7 @@
         <v>40713</v>
       </c>
       <c r="B171" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4697,7 +4253,7 @@
         <v>40714</v>
       </c>
       <c r="B172" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -4705,7 +4261,7 @@
         <v>40715</v>
       </c>
       <c r="B173" t="n">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="174">
@@ -4713,7 +4269,7 @@
         <v>40716</v>
       </c>
       <c r="B174" t="n">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="175">
@@ -4721,7 +4277,7 @@
         <v>40717</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="176">
@@ -4753,7 +4309,7 @@
         <v>40721</v>
       </c>
       <c r="B179" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="180">
@@ -4761,7 +4317,7 @@
         <v>40722</v>
       </c>
       <c r="B180" t="n">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="181">
@@ -4777,7 +4333,7 @@
         <v>40724</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="183">
@@ -4785,7 +4341,7 @@
         <v>40725</v>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184">
@@ -4825,7 +4381,7 @@
         <v>40730</v>
       </c>
       <c r="B188" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="189">
@@ -4833,7 +4389,7 @@
         <v>40731</v>
       </c>
       <c r="B189" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4849,7 +4405,7 @@
         <v>40733</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="192">
@@ -4881,7 +4437,7 @@
         <v>40737</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="196">
@@ -4889,7 +4445,7 @@
         <v>40738</v>
       </c>
       <c r="B196" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -4929,7 +4485,7 @@
         <v>40743</v>
       </c>
       <c r="B201" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="202">
@@ -4977,7 +4533,7 @@
         <v>40749</v>
       </c>
       <c r="B207" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -5009,7 +4565,7 @@
         <v>40753</v>
       </c>
       <c r="B211" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -5073,7 +4629,7 @@
         <v>40761</v>
       </c>
       <c r="B219" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="220">
@@ -5105,7 +4661,7 @@
         <v>40765</v>
       </c>
       <c r="B223" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -5113,7 +4669,7 @@
         <v>40766</v>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="225">
@@ -5121,7 +4677,7 @@
         <v>40767</v>
       </c>
       <c r="B225" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="226">
@@ -5129,7 +4685,7 @@
         <v>40768</v>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="227">
@@ -5137,7 +4693,7 @@
         <v>40769</v>
       </c>
       <c r="B227" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -5161,7 +4717,7 @@
         <v>40772</v>
       </c>
       <c r="B230" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="231">
@@ -5169,7 +4725,7 @@
         <v>40773</v>
       </c>
       <c r="B231" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -5177,7 +4733,7 @@
         <v>40774</v>
       </c>
       <c r="B232" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -5201,7 +4757,7 @@
         <v>40777</v>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="236">
@@ -5225,7 +4781,7 @@
         <v>40780</v>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="239">
@@ -5265,7 +4821,7 @@
         <v>40785</v>
       </c>
       <c r="B243" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -5281,7 +4837,7 @@
         <v>40787</v>
       </c>
       <c r="B245" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="246">
@@ -5313,7 +4869,7 @@
         <v>40791</v>
       </c>
       <c r="B249" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -5329,7 +4885,7 @@
         <v>40793</v>
       </c>
       <c r="B251" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -5337,7 +4893,7 @@
         <v>40794</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="253">
@@ -5369,7 +4925,7 @@
         <v>40798</v>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="257">
@@ -5393,7 +4949,7 @@
         <v>40801</v>
       </c>
       <c r="B259" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -5401,7 +4957,7 @@
         <v>40802</v>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="261">
@@ -5425,7 +4981,7 @@
         <v>40805</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="264">
@@ -5481,7 +5037,7 @@
         <v>40812</v>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="271">
@@ -5561,7 +5117,7 @@
         <v>40822</v>
       </c>
       <c r="B280" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -5593,7 +5149,7 @@
         <v>40826</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="285">
@@ -5609,7 +5165,7 @@
         <v>40828</v>
       </c>
       <c r="B286" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="287">
@@ -5657,7 +5213,7 @@
         <v>40834</v>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="293">
@@ -5665,7 +5221,7 @@
         <v>40835</v>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="294">
@@ -5689,7 +5245,7 @@
         <v>40838</v>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="297">
@@ -5721,7 +5277,7 @@
         <v>40842</v>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="301">
@@ -5729,7 +5285,7 @@
         <v>40843</v>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="302">
@@ -5753,7 +5309,7 @@
         <v>40846</v>
       </c>
       <c r="B304" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -5769,7 +5325,7 @@
         <v>40848</v>
       </c>
       <c r="B306" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="307">
@@ -5777,7 +5333,7 @@
         <v>40849</v>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="308">
@@ -5793,7 +5349,7 @@
         <v>40851</v>
       </c>
       <c r="B309" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -5817,7 +5373,7 @@
         <v>40854</v>
       </c>
       <c r="B312" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -5825,7 +5381,7 @@
         <v>40855</v>
       </c>
       <c r="B313" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="314">
@@ -5833,7 +5389,7 @@
         <v>40856</v>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="315">
@@ -5873,7 +5429,7 @@
         <v>40861</v>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="320">
@@ -5889,7 +5445,7 @@
         <v>40863</v>
       </c>
       <c r="B321" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -5897,7 +5453,7 @@
         <v>40864</v>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="323">
@@ -5929,7 +5485,7 @@
         <v>40868</v>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="327">
@@ -5945,7 +5501,7 @@
         <v>40870</v>
       </c>
       <c r="B328" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -5953,7 +5509,7 @@
         <v>40871</v>
       </c>
       <c r="B329" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -5969,7 +5525,7 @@
         <v>40873</v>
       </c>
       <c r="B331" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -6001,7 +5557,7 @@
         <v>40877</v>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="336">
@@ -6049,7 +5605,7 @@
         <v>40883</v>
       </c>
       <c r="B341" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="342">
@@ -6057,7 +5613,7 @@
         <v>40884</v>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="343">
@@ -6065,7 +5621,7 @@
         <v>40885</v>
       </c>
       <c r="B343" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -6105,7 +5661,7 @@
         <v>40890</v>
       </c>
       <c r="B348" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="349">
@@ -6137,7 +5693,7 @@
         <v>40894</v>
       </c>
       <c r="B352" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="353">
@@ -6145,7 +5701,7 @@
         <v>40895</v>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="354">
@@ -6185,7 +5741,7 @@
         <v>40900</v>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="359">

--- a/python/result_data/AMS.MC_resultados.xlsx
+++ b/python/result_data/AMS.MC_resultados.xlsx
@@ -366,7 +366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +406,7 @@
         <v>40554</v>
       </c>
       <c r="B2" t="n">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -415,253 +415,253 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9838983260742764</v>
+        <v>-0.784029758699567</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40563</v>
+        <v>40559</v>
       </c>
       <c r="B3" t="n">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9205286033779672</v>
+        <v>-0.371067519384528</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40569</v>
+        <v>40560</v>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8571588806816578</v>
+        <v>-0.8356500386139469</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40570</v>
+        <v>40569</v>
       </c>
       <c r="B5" t="n">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9838983260742764</v>
+        <v>-0.8356500386139469</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40574</v>
+        <v>40570</v>
       </c>
       <c r="B6" t="n">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6670497125927298</v>
+        <v>-0.784029758699567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40584</v>
+        <v>40576</v>
       </c>
       <c r="B7" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9205286033779672</v>
+        <v>-0.8872703185283268</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40588</v>
+        <v>40577</v>
       </c>
       <c r="B8" t="n">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7937891579853484</v>
+        <v>-0.8356500386139469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40596</v>
+        <v>40583</v>
       </c>
       <c r="B9" t="n">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7304194352890392</v>
+        <v>-0.8356500386139469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40605</v>
+        <v>40588</v>
       </c>
       <c r="B10" t="n">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9205286033779672</v>
+        <v>-0.8356500386139469</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40608</v>
+        <v>40595</v>
       </c>
       <c r="B11" t="n">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.997813889215226</v>
+        <v>-0.8356500386139469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40612</v>
+        <v>40596</v>
       </c>
       <c r="B12" t="n">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7937891579853484</v>
+        <v>-0.8872703185283268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40637</v>
+        <v>40597</v>
       </c>
       <c r="B13" t="n">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6670497125927298</v>
+        <v>-0.8872703185283268</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40639</v>
+        <v>40605</v>
       </c>
       <c r="B14" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8571588806816578</v>
+        <v>-0.8356500386139469</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40643</v>
+        <v>40608</v>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="C15" t="n">
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2.124553334607844</v>
+        <v>-0.4226877992989079</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40658</v>
+        <v>40610</v>
       </c>
       <c r="B16" t="n">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.237377216859514</v>
+        <v>-0.784029758699567</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40661</v>
+        <v>40612</v>
       </c>
       <c r="B17" t="n">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
@@ -670,15 +670,15 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7937891579853484</v>
+        <v>-0.8872703185283268</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40665</v>
+        <v>40616</v>
       </c>
       <c r="B18" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -687,687 +687,891 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8571588806816578</v>
+        <v>-0.784029758699567</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40681</v>
+        <v>40617</v>
       </c>
       <c r="B19" t="n">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6670497125927298</v>
+        <v>-0.8872703185283268</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40695</v>
+        <v>40630</v>
       </c>
       <c r="B20" t="n">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7937891579853484</v>
+        <v>-0.8872703185283268</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40696</v>
+        <v>40632</v>
       </c>
       <c r="B21" t="n">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9838983260742764</v>
+        <v>-0.8872703185283268</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40700</v>
+        <v>40633</v>
       </c>
       <c r="B22" t="n">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7304194352890392</v>
+        <v>-0.8356500386139469</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40715</v>
+        <v>40637</v>
       </c>
       <c r="B23" t="n">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6670497125927298</v>
+        <v>-0.8872703185283268</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40716</v>
+        <v>40638</v>
       </c>
       <c r="B24" t="n">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7304194352890392</v>
+        <v>-0.8872703185283268</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40717</v>
+        <v>40639</v>
       </c>
       <c r="B25" t="n">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9838983260742764</v>
+        <v>-0.8356500386139469</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40721</v>
+        <v>40640</v>
       </c>
       <c r="B26" t="n">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6670497125927298</v>
+        <v>-0.8356500386139469</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40722</v>
+        <v>40643</v>
       </c>
       <c r="B27" t="n">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7304194352890392</v>
+        <v>-0.4226877992989079</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40724</v>
+        <v>40652</v>
       </c>
       <c r="B28" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7937891579853484</v>
+        <v>2.622908715649505</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40730</v>
+        <v>40658</v>
       </c>
       <c r="B29" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.6003447413334567</v>
+        <v>-0.7324094787851871</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>40737</v>
+        <v>40659</v>
       </c>
       <c r="B30" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.6003447413334567</v>
+        <v>-0.8872703185283268</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>40743</v>
+        <v>40660</v>
       </c>
       <c r="B31" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.6637144640297661</v>
+        <v>-0.8872703185283268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>40766</v>
+        <v>40665</v>
       </c>
       <c r="B32" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.6637144640297661</v>
+        <v>-0.8872703185283268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>40772</v>
+        <v>40675</v>
       </c>
       <c r="B33" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.6637144640297661</v>
+        <v>-0.8356500386139469</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>40777</v>
+        <v>40678</v>
       </c>
       <c r="B34" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.7904539094223847</v>
+        <v>-0.4743080792132878</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>40780</v>
+        <v>40681</v>
       </c>
       <c r="B35" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.7904539094223847</v>
+        <v>-0.8872703185283268</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>40787</v>
+        <v>40686</v>
       </c>
       <c r="B36" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.7270841867260754</v>
+        <v>-0.9388905984427066</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>40794</v>
+        <v>40688</v>
       </c>
       <c r="B37" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.9171933548150034</v>
+        <v>-0.8872703185283268</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>40798</v>
+        <v>40695</v>
       </c>
       <c r="B38" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.9805630775113127</v>
+        <v>-0.8356500386139469</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>40805</v>
+        <v>40696</v>
       </c>
       <c r="B39" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.9171933548150034</v>
+        <v>-0.784029758699567</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>40812</v>
+        <v>40709</v>
       </c>
       <c r="B40" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.9805630775113127</v>
+        <v>-0.8872703185283268</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>40826</v>
+        <v>40715</v>
       </c>
       <c r="B41" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.043932800207622</v>
+        <v>-0.9388905984427066</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>40828</v>
+        <v>40722</v>
       </c>
       <c r="B42" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.107302522903931</v>
+        <v>-0.8872703185283268</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>40834</v>
+        <v>40728</v>
       </c>
       <c r="B43" t="n">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.107302522903931</v>
+        <v>1.538882837447527</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>40835</v>
+        <v>40756</v>
       </c>
       <c r="B44" t="n">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.107302522903931</v>
+        <v>1.384021997704388</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>40842</v>
+        <v>40766</v>
       </c>
       <c r="B45" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.043932800207622</v>
+        <v>1.332401717790008</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>40843</v>
+        <v>40769</v>
       </c>
       <c r="B46" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.9805630775113127</v>
+        <v>2.364807316077606</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>40848</v>
+        <v>40772</v>
       </c>
       <c r="B47" t="n">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
         <v>1</v>
       </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
       <c r="E47" t="n">
-        <v>-0.8538236321186941</v>
+        <v>1.384021997704388</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>40849</v>
+        <v>40773</v>
       </c>
       <c r="B48" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>2.124553334607844</v>
+        <v>1.280781437875628</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>40855</v>
+        <v>40780</v>
       </c>
       <c r="B49" t="n">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.107302522903931</v>
+        <v>1.177540878046868</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>40856</v>
+        <v>40784</v>
       </c>
       <c r="B50" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.107302522903931</v>
+        <v>1.125920598132488</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>40861</v>
+        <v>40793</v>
       </c>
       <c r="B51" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.107302522903931</v>
+        <v>1.125920598132488</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>40864</v>
+        <v>40798</v>
       </c>
       <c r="B52" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.107302522903931</v>
+        <v>0.9710597583893489</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>40868</v>
+        <v>40805</v>
       </c>
       <c r="B53" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.107302522903931</v>
+        <v>0.9710597583893489</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>40877</v>
+        <v>40812</v>
       </c>
       <c r="B54" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.107302522903931</v>
+        <v>0.9710597583893489</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>40883</v>
+        <v>40820</v>
       </c>
       <c r="B55" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.170672245600241</v>
+        <v>0.919439478474969</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>40884</v>
+        <v>40826</v>
       </c>
       <c r="B56" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.107302522903931</v>
+        <v>0.919439478474969</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>40890</v>
+        <v>40833</v>
       </c>
       <c r="B57" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.107302522903931</v>
+        <v>0.8678191985605891</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>40895</v>
+        <v>40842</v>
       </c>
       <c r="B58" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.919439478474969</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>40853</v>
+      </c>
+      <c r="B59" t="n">
+        <v>79</v>
+      </c>
+      <c r="C59" t="n">
         <v>6</v>
       </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-0.4102355732445288</v>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.538882837447527</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>40855</v>
+      </c>
+      <c r="B60" t="n">
+        <v>65</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.8161989186462092</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>40861</v>
+      </c>
+      <c r="B61" t="n">
+        <v>65</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.8161989186462092</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>40862</v>
+      </c>
+      <c r="B62" t="n">
+        <v>66</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.8678191985605891</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>40864</v>
+      </c>
+      <c r="B63" t="n">
+        <v>67</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.919439478474969</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>40868</v>
+      </c>
+      <c r="B64" t="n">
+        <v>65</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.8161989186462092</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>40870</v>
+      </c>
+      <c r="B65" t="n">
+        <v>66</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.8678191985605891</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>40875</v>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.7645786387318293</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>40877</v>
+      </c>
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.8161989186462092</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>40882</v>
+      </c>
+      <c r="B68" t="n">
+        <v>64</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.7645786387318293</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>40883</v>
+      </c>
+      <c r="B69" t="n">
+        <v>65</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.8161989186462092</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>40891</v>
+      </c>
+      <c r="B70" t="n">
+        <v>64</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.7645786387318293</v>
       </c>
     </row>
   </sheetData>
@@ -1381,7 +1585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1443,1122 +1647,1362 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40564</v>
+        <v>40560</v>
       </c>
       <c r="B3" t="n">
-        <v>11.802561</v>
+        <v>12.259961</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02759081958201559</v>
+        <v>0.01009421836213775</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7818416154103609</v>
+        <v>0.4246047012236127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40570</v>
+        <v>40561</v>
       </c>
       <c r="B4" t="n">
-        <v>12.406984</v>
+        <v>12.259961</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05121117357495542</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.746491367159454</v>
+        <v>0.08543449163505348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40571</v>
+        <v>40570</v>
       </c>
       <c r="B5" t="n">
-        <v>12.317137</v>
+        <v>12.406984</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.007241647123910178</v>
+        <v>0.01199212623922685</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1289458975147043</v>
+        <v>0.4883752468328283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40575</v>
+        <v>40571</v>
       </c>
       <c r="B6" t="n">
-        <v>12.570341</v>
+        <v>12.317137</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02055704990534735</v>
+        <v>-0.007241647123910178</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7629650777766589</v>
+        <v>-0.1578880604107533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40585</v>
+        <v>40577</v>
       </c>
       <c r="B7" t="n">
-        <v>12.37431</v>
+        <v>12.823545</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01559472412084939</v>
+        <v>0.04111409981069447</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3969513023429497</v>
+        <v>1.466886462413005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40589</v>
+        <v>40578</v>
       </c>
       <c r="B8" t="n">
-        <v>12.292633</v>
+        <v>12.745951</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.006600529645693354</v>
+        <v>-0.006050900901427791</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.108375878903009</v>
+        <v>-0.1178784597307255</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40597</v>
+        <v>40584</v>
       </c>
       <c r="B9" t="n">
-        <v>11.639204</v>
+        <v>12.635684</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.05315614644966626</v>
+        <v>-0.00865113948735563</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.602095730060778</v>
+        <v>-0.2052476283507939</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40606</v>
+        <v>40589</v>
       </c>
       <c r="B10" t="n">
-        <v>11.463595</v>
+        <v>12.292633</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01508771562041522</v>
+        <v>-0.0271493810703084</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.38068412098451</v>
+        <v>-0.8267967418753374</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40609</v>
+        <v>40596</v>
       </c>
       <c r="B11" t="n">
-        <v>11.696379</v>
+        <v>11.761724</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02030636986041467</v>
+        <v>-0.04318920120693437</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7549221006858022</v>
+        <v>-1.365741805507792</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40613</v>
+        <v>40597</v>
       </c>
       <c r="B12" t="n">
-        <v>11.075623</v>
+        <v>11.639204</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.05307249363243105</v>
+        <v>-0.01041684025233036</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.599411760170836</v>
+        <v>-0.2645759564136642</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40638</v>
+        <v>40598</v>
       </c>
       <c r="B13" t="n">
-        <v>10.78158</v>
+        <v>11.688211</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.02654866457625005</v>
+        <v>0.004210511303006648</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7484044551499777</v>
+        <v>0.2269095370404833</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40640</v>
+        <v>40606</v>
       </c>
       <c r="B14" t="n">
-        <v>11.308407</v>
+        <v>11.463595</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04886361739188505</v>
+        <v>-0.01921731221313516</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.671170889995008</v>
+        <v>-0.5602757136747375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40644</v>
+        <v>40609</v>
       </c>
       <c r="B15" t="n">
-        <v>11.255316</v>
+        <v>11.696379</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.004694825716831774</v>
+        <v>0.02030636986041467</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.04723206888851093</v>
+        <v>0.7677375164411319</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40659</v>
+        <v>40611</v>
       </c>
       <c r="B16" t="n">
-        <v>11.859736</v>
+        <v>11.557525</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05370084678208942</v>
+        <v>-0.01187153733646973</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.826371616798298</v>
+        <v>-0.3134544229986614</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40662</v>
+        <v>40613</v>
       </c>
       <c r="B17" t="n">
-        <v>11.549358</v>
+        <v>11.075623</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02617073432325978</v>
+        <v>-0.04169595133906268</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7362787019111877</v>
+        <v>-1.315567948307137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40666</v>
+        <v>40617</v>
       </c>
       <c r="B18" t="n">
-        <v>11.496266</v>
+        <v>10.920433</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.004596965476349357</v>
+        <v>-0.01401185287726037</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04409225904637852</v>
+        <v>-0.3853699735160244</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40682</v>
+        <v>40618</v>
       </c>
       <c r="B19" t="n">
-        <v>11.54119</v>
+        <v>10.74074</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003907703596976564</v>
+        <v>-0.01645475046639622</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.228776921826989</v>
+        <v>-0.4674524149280725</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40696</v>
+        <v>40631</v>
       </c>
       <c r="B20" t="n">
-        <v>11.680045</v>
+        <v>11.226727</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01203125500923208</v>
+        <v>0.04524706863772887</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.489418082645017</v>
+        <v>1.605756046267675</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40697</v>
+        <v>40633</v>
       </c>
       <c r="B21" t="n">
-        <v>11.598366</v>
+        <v>11.026615</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.006993038126137274</v>
+        <v>-0.01782460729649882</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1209693692106451</v>
+        <v>-0.5134802113857888</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40701</v>
+        <v>40634</v>
       </c>
       <c r="B22" t="n">
-        <v>11.528939</v>
+        <v>11.087874</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.005985929397296252</v>
+        <v>0.005555558074712863</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.08865665586225868</v>
+        <v>0.2721037045430573</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40716</v>
+        <v>40638</v>
       </c>
       <c r="B23" t="n">
-        <v>11.349244</v>
+        <v>10.78158</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01558642993947656</v>
+        <v>-0.0276242316606411</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3966851865825709</v>
+        <v>-0.8427519321108183</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40717</v>
+        <v>40639</v>
       </c>
       <c r="B24" t="n">
-        <v>11.214473</v>
+        <v>11.071538</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0118748878779944</v>
+        <v>0.02689383188734862</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2776017239149722</v>
+        <v>0.9890791593673789</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40718</v>
+        <v>40640</v>
       </c>
       <c r="B25" t="n">
-        <v>11.189974</v>
+        <v>11.308407</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.002184587719815334</v>
+        <v>0.02139440789527169</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.03330799447402611</v>
+        <v>0.804296076508246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40722</v>
+        <v>40641</v>
       </c>
       <c r="B26" t="n">
-        <v>11.287986</v>
+        <v>11.189974</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>0.008758912219098969</v>
+        <v>-0.01047300473002089</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3844261671475576</v>
+        <v>-0.2664631077498369</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40723</v>
+        <v>40644</v>
       </c>
       <c r="B27" t="n">
-        <v>11.557525</v>
+        <v>11.255316</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02387839602210695</v>
+        <v>0.005839334389874384</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8695292469951456</v>
+        <v>0.2816387144701874</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40725</v>
+        <v>40653</v>
       </c>
       <c r="B28" t="n">
-        <v>11.635119</v>
+        <v>11.798477</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0.006713721147044938</v>
+        <v>0.04825817418187106</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3188069634196619</v>
+        <v>1.706930526733708</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40731</v>
+        <v>40659</v>
       </c>
       <c r="B29" t="n">
-        <v>11.684129</v>
+        <v>11.859736</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.004212247420933179</v>
+        <v>0.005192110812268336</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2385480984673267</v>
+        <v>0.2598917154860272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>40738</v>
+        <v>40660</v>
       </c>
       <c r="B30" t="n">
-        <v>11.189974</v>
+        <v>11.577949</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.04229284014238466</v>
+        <v>-0.02375997239736194</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.253550540578739</v>
+        <v>-0.7129111086601401</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>40744</v>
+        <v>40661</v>
       </c>
       <c r="B31" t="n">
-        <v>11.202225</v>
+        <v>11.537106</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001094819344531262</v>
+        <v>-0.003527654163962946</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1385265646127748</v>
+        <v>-0.03309625133312977</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>40767</v>
+        <v>40666</v>
       </c>
       <c r="B32" t="n">
-        <v>10.771528</v>
+        <v>11.496266</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.03844745128757909</v>
+        <v>-0.003539882532066496</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.13017265274988</v>
+        <v>-0.03350712991964462</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>40773</v>
+        <v>40676</v>
       </c>
       <c r="B33" t="n">
-        <v>10.212293</v>
+        <v>11.353329</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.05191788945820863</v>
+        <v>-0.01243334139972052</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.562366709677198</v>
+        <v>-0.3323312884521765</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>40778</v>
+        <v>40679</v>
       </c>
       <c r="B34" t="n">
-        <v>10.683887</v>
+        <v>11.361497</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04617905107109643</v>
+        <v>0.0007194365634959343</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.585037566447905</v>
+        <v>0.1096078789417763</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>40781</v>
+        <v>40682</v>
       </c>
       <c r="B35" t="n">
-        <v>11.092881</v>
+        <v>11.54119</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>0.03828138579151941</v>
+        <v>0.01581596157619014</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.331643879160382</v>
+        <v>0.616857808447962</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>40788</v>
+        <v>40687</v>
       </c>
       <c r="B36" t="n">
-        <v>11.481003</v>
+        <v>11.492184</v>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03498838579445684</v>
+        <v>-0.004246182586024494</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1.225989184772248</v>
+        <v>-0.05723912468527119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>40795</v>
+        <v>40689</v>
       </c>
       <c r="B37" t="n">
-        <v>11.218081</v>
+        <v>11.283903</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.02290061242907082</v>
+        <v>-0.01812370912265238</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.6313580430436877</v>
+        <v>-0.5235301652727917</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>40799</v>
+        <v>40696</v>
       </c>
       <c r="B38" t="n">
-        <v>10.925945</v>
+        <v>11.680045</v>
       </c>
       <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.03510682429652223</v>
+      </c>
+      <c r="E38" t="n">
         <v>1</v>
       </c>
-      <c r="D38" t="n">
-        <v>-0.02604153063255643</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
-        <v>-0.732133248990672</v>
+        <v>1.265039343388871</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>40806</v>
+        <v>40697</v>
       </c>
       <c r="B39" t="n">
-        <v>10.633805</v>
+        <v>11.598366</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.02673819060959948</v>
+        <v>-0.006993038126137274</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.7544853282596016</v>
+        <v>-0.1495346879300752</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>40813</v>
+        <v>40710</v>
       </c>
       <c r="B40" t="n">
-        <v>10.262374</v>
+        <v>11.484015</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.03492926567677335</v>
+        <v>-0.009859233619632368</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.017292960723768</v>
+        <v>-0.2458401264865517</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>40827</v>
+        <v>40716</v>
       </c>
       <c r="B41" t="n">
-        <v>10.516951</v>
+        <v>11.349244</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02480683319473664</v>
+        <v>-0.01173552977769521</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.899317812382414</v>
+        <v>-0.3088845087606051</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>40829</v>
+        <v>40723</v>
       </c>
       <c r="B42" t="n">
-        <v>10.550339</v>
+        <v>11.557525</v>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>0.003174684373826508</v>
+        <v>0.01835197128548827</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2052582695124944</v>
+        <v>0.7020688583542676</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>40835</v>
+        <v>40729</v>
       </c>
       <c r="B43" t="n">
-        <v>10.658847</v>
+        <v>11.549358</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01028478800539023</v>
+        <v>-0.000706639180966584</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4333833308337603</v>
+        <v>0.06169110205167552</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>40836</v>
+        <v>40757</v>
       </c>
       <c r="B44" t="n">
-        <v>10.52947</v>
+        <v>11.268162</v>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.01213799203609922</v>
+        <v>-0.02434732735793621</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.2860433241098124</v>
+        <v>-0.7326464955850041</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>40843</v>
+        <v>40767</v>
       </c>
       <c r="B45" t="n">
-        <v>11.693846</v>
+        <v>10.771528</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1105825839287258</v>
+        <v>-0.04407409123156025</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>3.651401243234657</v>
+        <v>-1.395474502418821</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>40844</v>
+        <v>40770</v>
       </c>
       <c r="B46" t="n">
-        <v>11.385018</v>
+        <v>10.57538</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.02640944647295684</v>
+        <v>-0.01820985843419809</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.7439376934828474</v>
+        <v>-0.5264248203124001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>40849</v>
+        <v>40773</v>
       </c>
       <c r="B47" t="n">
-        <v>10.959332</v>
+        <v>10.212293</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.03739001554499088</v>
+        <v>-0.0343332343613183</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.09624521566579</v>
+        <v>-1.068177395527977</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>40850</v>
+        <v>40774</v>
       </c>
       <c r="B48" t="n">
-        <v>10.996888</v>
+        <v>10.062051</v>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>0.003426851198595093</v>
+        <v>-0.01471187714649402</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2133489493878411</v>
+        <v>-0.4088910991341922</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>40856</v>
+        <v>40781</v>
       </c>
       <c r="B49" t="n">
-        <v>10.788221</v>
+        <v>11.092881</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.01897509549974508</v>
+        <v>0.1024473042325069</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.5054092753991922</v>
+        <v>3.527709306954536</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>40857</v>
+        <v>40785</v>
       </c>
       <c r="B50" t="n">
-        <v>10.471044</v>
+        <v>11.476829</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.02940030613017675</v>
+        <v>0.03461210843242624</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8398983261349111</v>
+        <v>1.248416671152891</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>40862</v>
+        <v>40794</v>
       </c>
       <c r="B51" t="n">
-        <v>10.675538</v>
+        <v>11.435099</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01952947576192021</v>
+        <v>-0.003636021761760255</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7299957391244306</v>
+        <v>-0.03673745063543397</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>40865</v>
+        <v>40799</v>
       </c>
       <c r="B52" t="n">
-        <v>10.41679</v>
+        <v>10.925945</v>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02423746700166296</v>
+        <v>-0.04452554367915829</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.6742505305731732</v>
+        <v>-1.410643504690996</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>40869</v>
+        <v>40806</v>
       </c>
       <c r="B53" t="n">
-        <v>10.078744</v>
+        <v>10.633805</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.03245203176794387</v>
+        <v>-0.02673819060959948</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9378118213982979</v>
+        <v>-0.8129805602022152</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>40878</v>
+        <v>40813</v>
       </c>
       <c r="B54" t="n">
-        <v>10.537817</v>
+        <v>10.262374</v>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04554863185333402</v>
+        <v>-0.03492926567677335</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>1.564810797590174</v>
+        <v>-1.088204311821219</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>40884</v>
+        <v>40821</v>
       </c>
       <c r="B55" t="n">
-        <v>10.516951</v>
+        <v>9.966062000000001</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.001980106505930057</v>
+        <v>-0.02887363099415385</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03986869905356915</v>
+        <v>-0.8847323033099197</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>40885</v>
+        <v>40827</v>
       </c>
       <c r="B56" t="n">
-        <v>10.291589</v>
+        <v>10.516951</v>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.0214284539311822</v>
+        <v>0.05527649737679741</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.5841243788092321</v>
+        <v>1.942749295813645</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>40891</v>
+        <v>40834</v>
       </c>
       <c r="B57" t="n">
-        <v>9.882595</v>
+        <v>10.980196</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.03974060759713582</v>
+        <v>0.04404746204484544</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.171663097573499</v>
+        <v>1.565448733216254</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>40896</v>
+        <v>40843</v>
       </c>
       <c r="B58" t="n">
-        <v>9.861727999999999</v>
+        <v>11.693846</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.002111489947731471</v>
+        <v>0.06499428607649649</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.03565330962035567</v>
+        <v>2.269271301953033</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>40854</v>
+      </c>
+      <c r="B59" t="n">
+        <v>10.850823</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.07209116658454373</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-2.336860648291478</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>40856</v>
+      </c>
+      <c r="B60" t="n">
+        <v>10.788221</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.005769331966801072</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.1084176187676272</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>40862</v>
+      </c>
+      <c r="B61" t="n">
+        <v>10.675538</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.01044500293421879</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.2655222350036444</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>40863</v>
+      </c>
+      <c r="B62" t="n">
+        <v>10.583727</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.008600128630519621</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.2035336409588372</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>40865</v>
+      </c>
+      <c r="B63" t="n">
+        <v>10.41679</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.01577298809767103</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.4445448972586069</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>40869</v>
+      </c>
+      <c r="B64" t="n">
+        <v>10.078744</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.03245203176794387</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-1.004968154853475</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>40871</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9.895116</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.01821933367887907</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.5267431927320423</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>40876</v>
+      </c>
+      <c r="B66" t="n">
+        <v>10.254027</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.03627153031859365</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.304173981797006</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="B67" t="n">
+        <v>10.537817</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.027675955992704</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.015358875856638</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>40883</v>
+      </c>
+      <c r="B68" t="n">
+        <v>10.646327</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0102971991257772</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.4314249448201121</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>40884</v>
+      </c>
+      <c r="B69" t="n">
+        <v>10.516951</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.01215217229378718</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.3228838819103347</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>40892</v>
+      </c>
+      <c r="B70" t="n">
+        <v>9.907636</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.0579364684688557</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-1.861256519836308</v>
       </c>
     </row>
   </sheetData>
@@ -2603,10 +3047,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -2619,10 +3063,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -2652,16 +3096,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1561737618886061</v>
+        <v>0.191662969499982</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.3870967741935483</v>
       </c>
     </row>
     <row r="8">
@@ -2687,10 +3131,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6428571428571429</v>
+        <v>3.771428571428571</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7519878717401469</v>
+        <v>0.06689235909441892</v>
       </c>
     </row>
     <row r="11">
@@ -2720,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -2759,10 +3203,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5603538761433497</v>
+        <v>0.6968334014810775</v>
       </c>
     </row>
     <row r="16">
@@ -2775,10 +3219,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.543859649122807</v>
+        <v>0.7246376811594203</v>
       </c>
     </row>
     <row r="17">
@@ -2791,10 +3235,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.3870967741935483</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5515737874097008</v>
+        <v>0.6962463899193002</v>
       </c>
     </row>
     <row r="19">
@@ -2809,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08161612093666917</v>
+        <v>0.003184109850259006</v>
       </c>
     </row>
     <row r="22">
@@ -2835,10 +3279,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.003222716941998258</v>
+        <v>-0.002542659673055057</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03116756918500352</v>
+        <v>0.02976151229314289</v>
       </c>
     </row>
     <row r="24">
@@ -2851,10 +3295,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>66.47368421052632</v>
+        <v>49.18840579710145</v>
       </c>
       <c r="D24" t="n">
-        <v>15.78040675343274</v>
+        <v>19.37223125598414</v>
       </c>
     </row>
   </sheetData>
@@ -2973,7 +3417,7 @@
         <v>40554</v>
       </c>
       <c r="B12" t="n">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -3013,7 +3457,7 @@
         <v>40559</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
@@ -3021,7 +3465,7 @@
         <v>40560</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -3045,7 +3489,7 @@
         <v>40563</v>
       </c>
       <c r="B21" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3061,7 +3505,7 @@
         <v>40565</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -3093,7 +3537,7 @@
         <v>40569</v>
       </c>
       <c r="B27" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -3101,7 +3545,7 @@
         <v>40570</v>
       </c>
       <c r="B28" t="n">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -3109,7 +3553,7 @@
         <v>40571</v>
       </c>
       <c r="B29" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -3133,7 +3577,7 @@
         <v>40574</v>
       </c>
       <c r="B32" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3149,7 +3593,7 @@
         <v>40576</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -3157,7 +3601,7 @@
         <v>40577</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3205,7 +3649,7 @@
         <v>40583</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -3213,7 +3657,7 @@
         <v>40584</v>
       </c>
       <c r="B42" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3221,7 +3665,7 @@
         <v>40585</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
@@ -3245,7 +3689,7 @@
         <v>40588</v>
       </c>
       <c r="B46" t="n">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -3277,7 +3721,7 @@
         <v>40592</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
@@ -3301,7 +3745,7 @@
         <v>40595</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -3309,7 +3753,7 @@
         <v>40596</v>
       </c>
       <c r="B54" t="n">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -3317,7 +3761,7 @@
         <v>40597</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -3381,7 +3825,7 @@
         <v>40605</v>
       </c>
       <c r="B63" t="n">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -3405,7 +3849,7 @@
         <v>40608</v>
       </c>
       <c r="B66" t="n">
-        <v>98</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67">
@@ -3421,7 +3865,7 @@
         <v>40610</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
@@ -3437,7 +3881,7 @@
         <v>40612</v>
       </c>
       <c r="B70" t="n">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -3445,7 +3889,7 @@
         <v>40613</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -3469,7 +3913,7 @@
         <v>40616</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
@@ -3477,7 +3921,7 @@
         <v>40617</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -3581,7 +4025,7 @@
         <v>40630</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -3597,7 +4041,7 @@
         <v>40632</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -3605,7 +4049,7 @@
         <v>40633</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
@@ -3613,7 +4057,7 @@
         <v>40634</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
@@ -3637,7 +4081,7 @@
         <v>40637</v>
       </c>
       <c r="B95" t="n">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -3645,7 +4089,7 @@
         <v>40638</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -3653,7 +4097,7 @@
         <v>40639</v>
       </c>
       <c r="B97" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98">
@@ -3661,7 +4105,7 @@
         <v>40640</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -3669,7 +4113,7 @@
         <v>40641</v>
       </c>
       <c r="B99" t="n">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100">
@@ -3685,7 +4129,7 @@
         <v>40643</v>
       </c>
       <c r="B101" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102">
@@ -3733,7 +4177,7 @@
         <v>40649</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108">
@@ -3757,7 +4201,7 @@
         <v>40652</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
@@ -3805,7 +4249,7 @@
         <v>40658</v>
       </c>
       <c r="B116" t="n">
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117">
@@ -3813,7 +4257,7 @@
         <v>40659</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -3821,7 +4265,7 @@
         <v>40660</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="119">
@@ -3829,7 +4273,7 @@
         <v>40661</v>
       </c>
       <c r="B119" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3837,7 +4281,7 @@
         <v>40662</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121">
@@ -3861,7 +4305,7 @@
         <v>40665</v>
       </c>
       <c r="B123" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="124">
@@ -3893,7 +4337,7 @@
         <v>40669</v>
       </c>
       <c r="B127" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3941,7 +4385,7 @@
         <v>40675</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134">
@@ -3965,7 +4409,7 @@
         <v>40678</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137">
@@ -3989,7 +4433,7 @@
         <v>40681</v>
       </c>
       <c r="B139" t="n">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="140">
@@ -4013,7 +4457,7 @@
         <v>40684</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143">
@@ -4029,7 +4473,7 @@
         <v>40686</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145">
@@ -4045,7 +4489,7 @@
         <v>40688</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147">
@@ -4061,7 +4505,7 @@
         <v>40690</v>
       </c>
       <c r="B148" t="n">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149">
@@ -4101,7 +4545,7 @@
         <v>40695</v>
       </c>
       <c r="B153" t="n">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="154">
@@ -4109,7 +4553,7 @@
         <v>40696</v>
       </c>
       <c r="B154" t="n">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155">
@@ -4141,7 +4585,7 @@
         <v>40700</v>
       </c>
       <c r="B158" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -4173,7 +4617,7 @@
         <v>40704</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163">
@@ -4213,7 +4657,7 @@
         <v>40709</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="168">
@@ -4261,7 +4705,7 @@
         <v>40715</v>
       </c>
       <c r="B173" t="n">
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174">
@@ -4269,7 +4713,7 @@
         <v>40716</v>
       </c>
       <c r="B174" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -4277,7 +4721,7 @@
         <v>40717</v>
       </c>
       <c r="B175" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -4309,7 +4753,7 @@
         <v>40721</v>
       </c>
       <c r="B179" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4317,7 +4761,7 @@
         <v>40722</v>
       </c>
       <c r="B180" t="n">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="181">
@@ -4333,7 +4777,7 @@
         <v>40724</v>
       </c>
       <c r="B182" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4341,7 +4785,7 @@
         <v>40725</v>
       </c>
       <c r="B183" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4365,7 +4809,7 @@
         <v>40728</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="187">
@@ -4381,7 +4825,7 @@
         <v>40730</v>
       </c>
       <c r="B188" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4405,7 +4849,7 @@
         <v>40733</v>
       </c>
       <c r="B191" t="n">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="192">
@@ -4437,7 +4881,7 @@
         <v>40737</v>
       </c>
       <c r="B195" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -4485,7 +4929,7 @@
         <v>40743</v>
       </c>
       <c r="B201" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -4509,7 +4953,7 @@
         <v>40746</v>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="205">
@@ -4517,7 +4961,7 @@
         <v>40747</v>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="206">
@@ -4589,7 +5033,7 @@
         <v>40756</v>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215">
@@ -4629,7 +5073,7 @@
         <v>40761</v>
       </c>
       <c r="B219" t="n">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="220">
@@ -4669,7 +5113,7 @@
         <v>40766</v>
       </c>
       <c r="B224" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225">
@@ -4677,7 +5121,7 @@
         <v>40767</v>
       </c>
       <c r="B225" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -4685,7 +5129,7 @@
         <v>40768</v>
       </c>
       <c r="B226" t="n">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="227">
@@ -4693,7 +5137,7 @@
         <v>40769</v>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="228">
@@ -4717,7 +5161,7 @@
         <v>40772</v>
       </c>
       <c r="B230" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="231">
@@ -4725,7 +5169,7 @@
         <v>40773</v>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232">
@@ -4757,7 +5201,7 @@
         <v>40777</v>
       </c>
       <c r="B235" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -4781,7 +5225,7 @@
         <v>40780</v>
       </c>
       <c r="B238" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239">
@@ -4797,7 +5241,7 @@
         <v>40782</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="241">
@@ -4813,7 +5257,7 @@
         <v>40784</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="243">
@@ -4837,7 +5281,7 @@
         <v>40787</v>
       </c>
       <c r="B245" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -4885,7 +5329,7 @@
         <v>40793</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="252">
@@ -4893,7 +5337,7 @@
         <v>40794</v>
       </c>
       <c r="B252" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -4925,7 +5369,7 @@
         <v>40798</v>
       </c>
       <c r="B256" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="257">
@@ -4957,7 +5401,7 @@
         <v>40802</v>
       </c>
       <c r="B260" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="261">
@@ -4981,7 +5425,7 @@
         <v>40805</v>
       </c>
       <c r="B263" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="264">
@@ -5037,7 +5481,7 @@
         <v>40812</v>
       </c>
       <c r="B270" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="271">
@@ -5101,7 +5545,7 @@
         <v>40820</v>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="279">
@@ -5125,7 +5569,7 @@
         <v>40823</v>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="282">
@@ -5149,7 +5593,7 @@
         <v>40826</v>
       </c>
       <c r="B284" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="285">
@@ -5165,7 +5609,7 @@
         <v>40828</v>
       </c>
       <c r="B286" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -5205,7 +5649,7 @@
         <v>40833</v>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="292">
@@ -5213,7 +5657,7 @@
         <v>40834</v>
       </c>
       <c r="B292" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -5221,7 +5665,7 @@
         <v>40835</v>
       </c>
       <c r="B293" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -5237,7 +5681,7 @@
         <v>40837</v>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="296">
@@ -5245,7 +5689,7 @@
         <v>40838</v>
       </c>
       <c r="B296" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -5277,7 +5721,7 @@
         <v>40842</v>
       </c>
       <c r="B300" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="301">
@@ -5285,7 +5729,7 @@
         <v>40843</v>
       </c>
       <c r="B301" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -5325,7 +5769,7 @@
         <v>40848</v>
       </c>
       <c r="B306" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -5333,7 +5777,7 @@
         <v>40849</v>
       </c>
       <c r="B307" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -5365,7 +5809,7 @@
         <v>40853</v>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="312">
@@ -5381,7 +5825,7 @@
         <v>40855</v>
       </c>
       <c r="B313" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="314">
@@ -5389,7 +5833,7 @@
         <v>40856</v>
       </c>
       <c r="B314" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -5429,7 +5873,7 @@
         <v>40861</v>
       </c>
       <c r="B319" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="320">
@@ -5437,7 +5881,7 @@
         <v>40862</v>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="321">
@@ -5453,7 +5897,7 @@
         <v>40864</v>
       </c>
       <c r="B322" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="323">
@@ -5461,7 +5905,7 @@
         <v>40865</v>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="324">
@@ -5485,7 +5929,7 @@
         <v>40868</v>
       </c>
       <c r="B326" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="327">
@@ -5501,7 +5945,7 @@
         <v>40870</v>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="329">
@@ -5525,7 +5969,7 @@
         <v>40873</v>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="332">
@@ -5541,7 +5985,7 @@
         <v>40875</v>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="334">
@@ -5557,7 +6001,7 @@
         <v>40877</v>
       </c>
       <c r="B335" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="336">
@@ -5573,7 +6017,7 @@
         <v>40879</v>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="338">
@@ -5597,7 +6041,7 @@
         <v>40882</v>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="341">
@@ -5605,7 +6049,7 @@
         <v>40883</v>
       </c>
       <c r="B341" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="342">
@@ -5613,7 +6057,7 @@
         <v>40884</v>
       </c>
       <c r="B342" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -5661,7 +6105,7 @@
         <v>40890</v>
       </c>
       <c r="B348" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -5669,7 +6113,7 @@
         <v>40891</v>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="350">
@@ -5693,7 +6137,7 @@
         <v>40894</v>
       </c>
       <c r="B352" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -5701,7 +6145,7 @@
         <v>40895</v>
       </c>
       <c r="B353" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -5741,7 +6185,7 @@
         <v>40900</v>
       </c>
       <c r="B358" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -5787,7 +6231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:B253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7823,30 +8267,6 @@
         <v>10.141344</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
-        <v>40905</v>
-      </c>
-      <c r="B254" t="n">
-        <v>10.095437</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
-        <v>40906</v>
-      </c>
-      <c r="B255" t="n">
-        <v>10.266549</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
-        <v>40907</v>
-      </c>
-      <c r="B256" t="n">
-        <v>10.462696</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
